--- a/playlist_per_work/krul001verm01.xlsx
+++ b/playlist_per_work/krul001verm01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#iacam</t>
+          <t>#f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IACAM</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -509,19 +505,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#lesbia</t>
+          <t>#helen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LESBIA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>HELEN</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -535,19 +527,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#allerdvs</t>
+          <t>#ypri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALLERDVS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>YPRI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -561,19 +549,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#laura</t>
+          <t>#leander</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>LEANDER</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -587,19 +571,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#fabri</t>
+          <t>#emilia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FABRI</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>EMILIA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -613,19 +593,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#camil</t>
+          <t>#fabri</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMIL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FABRI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -639,19 +615,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#cypriaen</t>
+          <t>#jongm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CYPRIAEN</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Jongm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -665,19 +637,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#flor</t>
+          <t>#tyter</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FLOR</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tyter</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -691,19 +659,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#conin</t>
+          <t>#cypriaen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONIN</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CYPRIAEN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -717,19 +681,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#dochter</t>
+          <t>#iacam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dochter</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>IACAM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -743,19 +703,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#dia</t>
+          <t>#celes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CELES</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -769,19 +725,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#jongm</t>
+          <t>#plvto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jongm</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>PLVTO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -795,19 +747,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#vvaer-segger</t>
+          <t>#diana</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>VVAER-SEGGER</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>DIANA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -821,19 +769,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#antw</t>
+          <t>#flo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Antw</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FLO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -847,19 +791,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#sirenvs-peternel</t>
+          <t>#dioni</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SIRENVS PETERNEL</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>DIONI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -873,19 +813,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#leander</t>
+          <t>#cvpid</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEANDER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CVPID</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -899,19 +835,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#roset</t>
+          <t>#florentivs</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Roset</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FLORENTIVS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -925,19 +857,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#siren</t>
+          <t>#rozette</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SIREN</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rozette</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -951,19 +879,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#fabricio</t>
+          <t>#alerd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FABRICIO</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ALERD</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -977,19 +901,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#lean</t>
+          <t>#emme</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEAN</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>EMME</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1003,19 +923,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#klvys</t>
+          <t>#rozet</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KLVYS</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rozet</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1029,19 +945,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#vraegh</t>
+          <t>#fl</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vraegh</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1055,19 +967,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#dioni</t>
+          <t>#dochter</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIONI</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dochter</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1081,19 +989,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#florentivs</t>
+          <t>#proph</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FLORENTIVS</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Proph</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1107,19 +1011,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#ce</t>
+          <t>#roset</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Roset</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1133,19 +1033,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#choor</t>
+          <t>#sirenvs-peternel</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHOOR</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>SIRENVS PETERNEL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1159,19 +1055,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#cypri</t>
+          <t>#jacamyn</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CYPRI</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>JACAMYN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1185,19 +1077,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#galathe</t>
+          <t>#araeta</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galathe</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ARAETA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1211,19 +1099,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#vvaer</t>
+          <t>#corid</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VVAER</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CORID</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1237,19 +1121,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#araeta</t>
+          <t>#allerdvs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARAETA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ALLERDVS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1263,19 +1143,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#venvs</t>
+          <t>#laur</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VENVS</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>LAUR</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1289,19 +1165,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#lavra</t>
+          <t>#ia</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LAVRA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1315,19 +1187,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#floriaen</t>
+          <t>#jacam</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FLORIAEN</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>JACAM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1341,19 +1209,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#rozette</t>
+          <t>#aller</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rozette</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ALLER</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1367,19 +1231,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#emilia</t>
+          <t>#siren</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EMILIA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>SIREN</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1393,19 +1253,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#alerd</t>
+          <t>#galathe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ALERD</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Galathe</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1419,19 +1275,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#emme</t>
+          <t>#t</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EMME</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1445,19 +1297,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#tyter</t>
+          <t>#flori</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tyter</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FLORI</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1471,19 +1319,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#cupido</t>
+          <t>#vraegh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUPIDO</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Vraegh</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1497,19 +1341,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#jacamyn</t>
+          <t>#lean</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JACAMYN</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>LEAN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1523,19 +1363,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#peter</t>
+          <t>#cyp</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PETER</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CYP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1549,19 +1385,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#proph</t>
+          <t>#conin</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Proph</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CONIN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1575,19 +1407,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#plvto</t>
+          <t>#ce</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLVTO</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1601,19 +1429,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#celes</t>
+          <t>#klvy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CELES</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>KLVY</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1627,19 +1451,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#prophyrus</t>
+          <t>#fabricio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Prophyrus</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FABRICIO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1653,19 +1473,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#emmerens</t>
+          <t>#florentius</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EMMERENS</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FLORENTIUS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1679,12 +1495,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#cupido</t>
+          <t>#prophyrus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CVPID</t>
+          <t>Prophyrus</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1701,12 +1517,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#celes</t>
+          <t>#dia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HELEN</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1723,12 +1539,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#iacam</t>
+          <t>#vvaer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>JACAM</t>
+          <t>VVAER</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1745,12 +1561,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#lesbia</t>
+          <t>#cecil</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LESB</t>
+          <t>CECIL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1767,12 +1583,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#siren</t>
+          <t>#peter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SIRE</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1789,12 +1605,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#emme</t>
+          <t>#c</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EMI</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1811,12 +1627,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#cypri</t>
+          <t>#flore</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>FLORE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1833,12 +1649,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#cypri</t>
+          <t>#antw</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YPRI</t>
+          <t>Antw</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1855,12 +1671,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#ce</t>
+          <t>#camil</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>CAMIL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1877,12 +1693,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#dia</t>
+          <t>#vvaer-segger</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIANA</t>
+          <t>VVAER-SEGGER</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1899,12 +1715,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#flor</t>
+          <t>#klvys</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>KLVYS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1921,12 +1737,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#flor</t>
+          <t>#lesb</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FLO</t>
+          <t>LESB</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1943,12 +1759,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#camil</t>
+          <t>#sire</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CECIL</t>
+          <t>SIRE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1965,12 +1781,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#ce</t>
+          <t>#emi</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CECI</t>
+          <t>EMI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -1987,12 +1803,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#conin</t>
+          <t>#emmerens</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CORID</t>
+          <t>EMMERENS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2009,12 +1825,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#lavra</t>
+          <t>#cypri</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LAUR</t>
+          <t>CYPRI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2031,12 +1847,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#fabri</t>
+          <t>#d</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FLORI</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2053,12 +1869,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#emilia</t>
+          <t>#flor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CECILIA</t>
+          <t>FLOR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2075,12 +1891,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#klvys</t>
+          <t>#ceci</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KLVY</t>
+          <t>CECI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2097,12 +1913,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#flor</t>
+          <t>#laura</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FLORE</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2119,12 +1935,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#alerd</t>
+          <t>#lesbia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALLER</t>
+          <t>LESBIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2141,12 +1957,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#florentivs</t>
+          <t>#venvs</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FLORENTIUS</t>
+          <t>VENVS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2163,12 +1979,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#rozette</t>
+          <t>#lavra</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Rozet</t>
+          <t>LAVRA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2177,6 +1993,94 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/tekst/krul001verm01_01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>#floriaen</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FLORIAEN</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/tekst/krul001verm01_01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>#choor</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CHOOR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/tekst/krul001verm01_01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>#cupido</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CUPIDO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/tekst/krul001verm01_01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>#cecilia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CECILIA</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/playlist_per_work/krul001verm01.xlsx
+++ b/playlist_per_work/krul001verm01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#f</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#florentius</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FLORENTIUS</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#helen</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HELEN</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#ypri</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>YPRI</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#cypri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CYPRI</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#leander</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LEANDER</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#cecilia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CECILIA</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#emilia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EMILIA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#siren</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SIREN</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#fabri</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FABRI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#dioni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIONI</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#jongm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jongm</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#jacam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JACAM</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#tyter</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tyter</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#sirenvs-peternel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SIRENVS PETERNEL</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#cypriaen</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CYPRIAEN</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#prophyrus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prophyrus</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#iacam</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>IACAM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#diana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DIANA</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#celes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CELES</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#klvys</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KLVYS</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#plvto</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PLVTO</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#cyp</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#diana</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DIANA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#proph</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Proph</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#flo</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FLO</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#emme</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EMME</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +810,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#dioni</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DIONI</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#cecil</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CECIL</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#cvpid</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CVPID</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#aller</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALLER</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#florentivs</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FLORENTIVS</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#vraegh</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Vraegh</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#rozette</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Rozette</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#vvaer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VVAER</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,16 +905,17 @@
           <t>#alerd</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ALERD</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -901,19 +925,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#emme</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>EMME</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>#helen</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>HELEN</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +948,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#rozet</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Rozet</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#florentivs</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FLORENTIVS</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +971,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#fl</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#leander</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LEANDER</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +994,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#dochter</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Dochter</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#lavra</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LAVRA</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1017,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#proph</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Proph</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#laur</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LAUR</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1040,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#roset</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Roset</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#tyter</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tyter</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1063,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#sirenvs-peternel</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SIRENVS PETERNEL</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#c</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1086,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#jacamyn</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>JACAMYN</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#lesb</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LESB</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1109,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#araeta</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ARAETA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#dia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1132,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#corid</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CORID</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#choor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CHOOR</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1155,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#allerdvs</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ALLERDVS</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#klvy</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KLVY</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1178,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#laur</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>LAUR</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#sire</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SIRE</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1201,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#ia</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>IA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#corid</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORID</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1224,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#jacam</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>JACAM</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#emmerens</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>EMMERENS</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1247,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#aller</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ALLER</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#conin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CONIN</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,19 +1270,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#siren</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SIREN</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#vvaer-segger</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VVAER-SEGGER</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1253,19 +1293,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#galathe</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Galathe</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>#laura</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1275,19 +1316,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#t</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>#jongm</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jongm</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1297,19 +1339,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#flori</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FLORI</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#d</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1319,19 +1362,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#vraegh</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Vraegh</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>#cupido</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CUPIDO</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1341,19 +1385,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#lean</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>LEAN</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>#emi</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EMI</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1363,19 +1408,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#cyp</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CYP</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>#flore</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FLORE</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1385,19 +1431,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#conin</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CONIN</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>#fabricio</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FABRICIO</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1407,19 +1454,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#ce</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>#fabri</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FABRI</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1429,19 +1477,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#klvy</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>KLVY</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>#cypriaen</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CYPRIAEN</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1451,19 +1500,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#fabricio</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FABRICIO</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>#emilia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>EMILIA</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1473,19 +1523,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#florentius</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FLORENTIUS</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>#ia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1495,19 +1546,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#prophyrus</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Prophyrus</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>#floriaen</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FLORIAEN</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1517,19 +1569,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#dia</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>#jacamyn</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JACAMYN</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1539,19 +1592,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#vvaer</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>VVAER</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>#flor</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FLOR</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1561,19 +1615,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#cecil</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>CECIL</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>#dochter</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Dochter</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1583,19 +1638,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#peter</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>PETER</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>#camil</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CAMIL</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1605,19 +1661,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#c</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>#galathe</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Galathe</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1627,19 +1684,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#flore</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FLORE</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>#fl</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1649,19 +1707,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#antw</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Antw</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>#t</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1671,19 +1730,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#camil</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>CAMIL</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>#rozet</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rozet</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1693,19 +1753,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#vvaer-segger</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>VVAER-SEGGER</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>#iacam</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>IACAM</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1715,19 +1776,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#klvys</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>KLVYS</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>#ceci</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CECI</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1737,19 +1799,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#lesb</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>LESB</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>#araeta</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ARAETA</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1759,19 +1822,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#sire</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SIRE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>#flo</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FLO</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1781,19 +1845,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#emi</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>EMI</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>#roset</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Roset</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1803,19 +1868,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#emmerens</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>EMMERENS</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>#ce</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1825,19 +1891,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#cypri</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>CYPRI</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>#allerdvs</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ALLERDVS</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1847,19 +1914,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#d</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>#cvpid</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CVPID</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1869,19 +1937,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#flor</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>FLOR</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>#celes</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CELES</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1891,19 +1960,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#ceci</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>CECI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>#lesbia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LESBIA</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1913,19 +1983,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#laura</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>#lean</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>LEAN</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1935,19 +2006,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#lesbia</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>LESBIA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>#ypri</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>YPRI</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1957,19 +2029,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#venvs</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>VENVS</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>#plvto</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PLVTO</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1979,19 +2052,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#lavra</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>LAVRA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>#flori</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FLORI</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2001,19 +2075,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#floriaen</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>FLORIAEN</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>#rozette</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Rozette</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2023,19 +2098,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#choor</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>CHOOR</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>#antw</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Antw</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2045,19 +2121,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#cupido</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>CUPIDO</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>#venvs</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VENVS</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2067,19 +2144,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#cecilia</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>CECILIA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>#peter</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PETER</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
